--- a/results/tables/simple.xlsx
+++ b/results/tables/simple.xlsx
@@ -37,604 +37,604 @@
     <t>Минимальный остаток</t>
   </si>
   <si>
-    <t>цШо65ЫЩJIO ЕxUЯe0nБсн HпgВGYНШчм</t>
-  </si>
-  <si>
-    <t>BхвOБUЖЬuК</t>
-  </si>
-  <si>
-    <t>2VIfИЦшвmS 31ъиPZФ8tm 7tSйЮKСТcу</t>
-  </si>
-  <si>
-    <t>аЬhdWммЧd0</t>
-  </si>
-  <si>
-    <t>kШNъШRWГШ3 GZaГЯВwЩbь ХдVVщГLн9T</t>
-  </si>
-  <si>
-    <t>sаЗkEмСaiM</t>
-  </si>
-  <si>
-    <t>НтwЬAТРMnЕ мНvРzВнцэю KЗSДеL5ЪщX</t>
-  </si>
-  <si>
-    <t>жлRюEZAшчз</t>
-  </si>
-  <si>
-    <t>RАcFйиЬРфУ gъмоъКкжsI дцЁЖ2ТЙuvP</t>
-  </si>
-  <si>
-    <t>зWуSвIAqз1</t>
-  </si>
-  <si>
-    <t>ЮTж0Ъу9ILв яP0SнI5сaь MfМдAммфДа</t>
-  </si>
-  <si>
-    <t>fЮуъicZЦСс</t>
-  </si>
-  <si>
-    <t>5QвJнУИЛOQ kщЪEЛ7mЧTW Swuкннхж44</t>
-  </si>
-  <si>
-    <t>Kцрел6vх9Ю</t>
-  </si>
-  <si>
-    <t>ьDЛAЕwЯ4oк DDИьчcэoБн yEhТYwЪЬtJ</t>
-  </si>
-  <si>
-    <t>Я9югВ3OЩр1</t>
-  </si>
-  <si>
-    <t>ЯhБсДPbРрW НCБогKshz8 В1uЗЭйnХwв</t>
-  </si>
-  <si>
-    <t>ДБХБVcфge6</t>
-  </si>
-  <si>
-    <t>6хpTP6Аъдл 5В3ъЙgфЦNt cЫЮжLAiъвЭ</t>
-  </si>
-  <si>
-    <t>mЁjVщZKаXе</t>
-  </si>
-  <si>
-    <t>IGlиgxмhBO ГйLбЛКуbnЖ f3М0УтЪhыd</t>
-  </si>
-  <si>
-    <t>КvhБxкiНTО</t>
-  </si>
-  <si>
-    <t>Гче0CЬГN3щ еъюЩ3rТ34ч NьзVrLНCdя</t>
-  </si>
-  <si>
-    <t>б7ШМpEЬпYф</t>
-  </si>
-  <si>
-    <t>ПШRNи9яTЬз мщрМЫГFзйр ЛxжO0ZхХ0Д</t>
-  </si>
-  <si>
-    <t>нcнТKA5otP</t>
-  </si>
-  <si>
-    <t>17OхwFrAхк oAТТLHnПЖK TjХЙЬЮGЧпv</t>
-  </si>
-  <si>
-    <t>ReъkDаЖъ4H</t>
-  </si>
-  <si>
-    <t>бСшiЪoiЖсS УKЭГqфбДьг pUЕjТdхЫхв</t>
-  </si>
-  <si>
-    <t>КоiЗДUкIЯП</t>
-  </si>
-  <si>
-    <t>арOлНXqЦnN спкYQяДЭoВ bШЩlБёMеВЫ</t>
-  </si>
-  <si>
-    <t>ЗdЖ6ЖP0ДС9</t>
-  </si>
-  <si>
-    <t>aоiЦe1ХJLО uлEиh2CЩCл еOк8faOTlТ</t>
-  </si>
-  <si>
-    <t>ЬжкьЩюLЯ3Щ</t>
-  </si>
-  <si>
-    <t>ГёСOcJЭШhе M5сЫШСуНwи RZIЕчДсТuX</t>
-  </si>
-  <si>
-    <t>аОУНмцvфФй</t>
-  </si>
-  <si>
-    <t>D1VJуj9нСX ЪФнlЦUщ6ъл sСВМнHСQ1P</t>
-  </si>
-  <si>
-    <t>БТUoAXкЕtл</t>
-  </si>
-  <si>
-    <t>4КvjeeCtИK ГдЪvОEзЪшм щXчid6AO5N</t>
-  </si>
-  <si>
-    <t>JXRL3дУ0Tы</t>
-  </si>
-  <si>
-    <t>DjОжПyъЕчВ RёBtct0xён хОxАJёzVКZ</t>
-  </si>
-  <si>
-    <t>УФъЩжЙкVзe</t>
-  </si>
-  <si>
-    <t>ёЕфiqzлTуJ rue07СnpjБ Зnш4УчКUSР</t>
-  </si>
-  <si>
-    <t>7AтшRеyWфЦ</t>
-  </si>
-  <si>
-    <t>ххВлЪЩJДLs DЮ4ImЖхпkЙ зЫчЛЮпnaЫл</t>
-  </si>
-  <si>
-    <t>57КХцmМ6мИ</t>
-  </si>
-  <si>
-    <t>ОdaaeЙиxRI cEРsDъsГрД mбE4ЮГDQ2ж</t>
-  </si>
-  <si>
-    <t>aCёйhяkrеК</t>
-  </si>
-  <si>
-    <t>ПtтшnЮBлUЕ WЛщЩэёзбQЗ лЦ1гцдdhъЁ</t>
-  </si>
-  <si>
-    <t>пЙ9iggссiQ</t>
-  </si>
-  <si>
-    <t>иa3оЁшФ3Н7 EcYnoкЫkгж tФЕNиzkMoW</t>
-  </si>
-  <si>
-    <t>н8ЫЬeзFжцN</t>
-  </si>
-  <si>
-    <t>hТпTкNИБЕ2 9mйБОEZ5Uj LйвwрIаЕha</t>
-  </si>
-  <si>
-    <t>pNйpгЬPAtю</t>
-  </si>
-  <si>
-    <t>hБAnLЬЫГ9Т ФцЦЯВBйZВG Лё9ЧDXBчиз</t>
-  </si>
-  <si>
-    <t>kFАОНzоaОо</t>
-  </si>
-  <si>
-    <t>UО4ЁъЮэzuJ ЯщФPдТЗвmq ZDrW4TgАpP</t>
-  </si>
-  <si>
-    <t>8гtйoЕgйби</t>
-  </si>
-  <si>
-    <t>еЖNМЪ0зыFэ Нхч0йХЯеиН ъэлщюdчНнэ</t>
-  </si>
-  <si>
-    <t>УXАgtж1юшz</t>
-  </si>
-  <si>
-    <t>DыХъцяЗ5зс 3ОАъJIqT1Х IWВМC5НMфA</t>
-  </si>
-  <si>
-    <t>УХгВКcИlk3</t>
-  </si>
-  <si>
-    <t>DЧпЬу80wU8 7jHтgзюЮШм кыШиХLZчtЬ</t>
-  </si>
-  <si>
-    <t>ЯshSNъZЙмд</t>
-  </si>
-  <si>
-    <t>кчс98пОвнw ИYъШ2мъqЯ5 4OВЫC7е2оЦ</t>
-  </si>
-  <si>
-    <t>1UDкСН28ъб</t>
-  </si>
-  <si>
-    <t>cУКцgКvмПr ЕчnHDK8ДёI XaИтНurЁгЛ</t>
-  </si>
-  <si>
-    <t>тD3LyjEбБШ</t>
-  </si>
-  <si>
-    <t>ZОMАхЭSпИ1 тlАVоdТ9g6 kжюИBzPBЩG</t>
-  </si>
-  <si>
-    <t>НоЫэDnпkНT</t>
-  </si>
-  <si>
-    <t>вЙГЛлzНМXf лnМNUf6PИ4 штSGPВvZтК</t>
-  </si>
-  <si>
-    <t>ахАмя3cЕrЖ</t>
-  </si>
-  <si>
-    <t>сOРЯжsЛыoL ПщrgЕБкЬа9 ПVыиНбmWбd</t>
-  </si>
-  <si>
-    <t>юНРДваЮpbN</t>
-  </si>
-  <si>
-    <t>иXшhHщцЛфN MлТЗБfдЫfy у7сtJёБхыд</t>
-  </si>
-  <si>
-    <t>ъАпЦ6eниЗр</t>
-  </si>
-  <si>
-    <t>Nаbю71IFjе bk2чШУХAEe FЕKBGЙЫ14У</t>
-  </si>
-  <si>
-    <t>PФвWпычёШb</t>
-  </si>
-  <si>
-    <t>HуЭPНqфOHй Ьо8йIЫCjMd Mа7ВH7uЪNA</t>
-  </si>
-  <si>
-    <t>мГе3ждН3dЙ</t>
-  </si>
-  <si>
-    <t>4ЬбрцpзцБЙ ЙoMpСyмоэр ахKКьЧ04qs</t>
-  </si>
-  <si>
-    <t>ZqВNТкkйвy</t>
-  </si>
-  <si>
-    <t>Ё1Аци4ВЮ1е z7oБАjцЦмU гЯАGгар5TК</t>
-  </si>
-  <si>
-    <t>3YТэчhЕРxЬ</t>
-  </si>
-  <si>
-    <t>ХeccеЬiL6P yUд62ГшcDc ЧАoфsЪoJZq</t>
-  </si>
-  <si>
-    <t>pЬeCЧЬXКgЦ</t>
-  </si>
-  <si>
-    <t>nЬбНМкCНят gЭмdаЪЯэпO zEДЪпшcщЧ0</t>
-  </si>
-  <si>
-    <t>гAQКфBIGYЮ</t>
-  </si>
-  <si>
-    <t>DЯыoШgТXCO УЬОvphzЁaА iЧkиЭmЖеzа</t>
-  </si>
-  <si>
-    <t>2яPЭEЮаПNМ</t>
-  </si>
-  <si>
-    <t>VоКopeяw3k ць4сУHяVчd жЩКcРрXойC</t>
-  </si>
-  <si>
-    <t>ЭИrЯE4БV9r</t>
-  </si>
-  <si>
-    <t>GФНЬWоКxoо хLvМpyeofЭ яXкХТОtmЙы</t>
-  </si>
-  <si>
-    <t>ТlЯГkqeЪЮЛ</t>
-  </si>
-  <si>
-    <t>ЯДЙягVЮЕqd 2ЙЧо2nLВыX ЁСГVХйnrШG</t>
-  </si>
-  <si>
-    <t>АОГъhQНWтб</t>
-  </si>
-  <si>
-    <t>ЖуоPБOЭПpk ЕFТсчйыяШъ ь2rdиNЮAxm</t>
-  </si>
-  <si>
-    <t>яUёЭBмЧЪХ3</t>
-  </si>
-  <si>
-    <t>kcSгiймюYл уlNиeGвZзЙ ЧJУЁxЬSыд6</t>
-  </si>
-  <si>
-    <t>SйwфЫБЫлаo</t>
-  </si>
-  <si>
-    <t>hшMzИЦКvБф aQзМNUюпfЪ uЕмАм6ЧWцc</t>
-  </si>
-  <si>
-    <t>нСdN9И6МkU</t>
-  </si>
-  <si>
-    <t>4ъЬЧЧNАёэЬ ШР72ОЛwдпm BрышДsРw3Z</t>
-  </si>
-  <si>
-    <t>7ЖдvWпKDЫх</t>
-  </si>
-  <si>
-    <t>S2hгlQЗЛМЛ ЧДzмХОXДFc yL4аЙДeзmq</t>
-  </si>
-  <si>
-    <t>ынёhНМOQУЧ</t>
-  </si>
-  <si>
-    <t>PкэAуРИSRЁ ЛОЖEьCС4Ъw ЭiЙaф3сfyq</t>
-  </si>
-  <si>
-    <t>фсзJлYжзЗO</t>
-  </si>
-  <si>
-    <t>MJdсм9оLАл ЯЬoЗГтX7лс ВщzN5gpнЭX</t>
-  </si>
-  <si>
-    <t>gБеrjфтХъИ</t>
-  </si>
-  <si>
-    <t>яАGrюRkХаЧ 2тxФИГЛсth UzBVUтНЙXО</t>
-  </si>
-  <si>
-    <t>bИIЁДКыpэв</t>
-  </si>
-  <si>
-    <t>bТЕuZTтРкC jxХБЗАlAem EбзhGдЭкcY</t>
-  </si>
-  <si>
-    <t>TjЙфс7с61i</t>
-  </si>
-  <si>
-    <t>ayUиwqжДЩ9 иjiBж4оwъЗ Й3S9ZЭ5d0J</t>
-  </si>
-  <si>
-    <t>JvР0Mпечао</t>
-  </si>
-  <si>
-    <t>КгБмZЦРаRё BдPхSПкmЮд wсВсJЦl6Aё</t>
-  </si>
-  <si>
-    <t>ХлЧауBlhёЦ</t>
-  </si>
-  <si>
-    <t>шОыхБ0XkЫB ёxэзжaknэг yvpР9oRттm</t>
-  </si>
-  <si>
-    <t>MРgёПЭ1iУЫ</t>
-  </si>
-  <si>
-    <t>ёFGDБ3BlЫE Жц3ZvЭёjQБ qй0цтvЯПcv</t>
-  </si>
-  <si>
-    <t>эвУрm2VК6S</t>
-  </si>
-  <si>
-    <t>XЯ2CжВВTpu ЯУ0шKЖZvГл ЧХumЯlЦmЕX</t>
-  </si>
-  <si>
-    <t>Э9НиmТ1VЧу</t>
-  </si>
-  <si>
-    <t>ыШчефfлIay 7IЬЧБЮйцPл 68ЩlewMСБЩ</t>
-  </si>
-  <si>
-    <t>оЁэJЕXMПиз</t>
-  </si>
-  <si>
-    <t>DъёHЯГлwhР 3hП0lяГ4Uч ЛзKРЖчMднV</t>
-  </si>
-  <si>
-    <t>oЦЩъDЛVQkН</t>
-  </si>
-  <si>
-    <t>рЙLpЯ3вJРС мзпPбNзqfl yЙпi8эЦVдЬ</t>
-  </si>
-  <si>
-    <t>Э3Z1QCovЕь</t>
-  </si>
-  <si>
-    <t>мйАаШнНВРК Быj2Eт8kTМ dЗauУMыльЁ</t>
-  </si>
-  <si>
-    <t>lLkмИшZюцб</t>
-  </si>
-  <si>
-    <t>МНЮMbHхНЧш CПJЪо5nRуЦ 2ыПВX0mOю2</t>
-  </si>
-  <si>
-    <t>ТSPIЫZфAюй</t>
-  </si>
-  <si>
-    <t>bыЭЦиGЖяoм rrUWgЯeOIё JsYеWщoтИF</t>
-  </si>
-  <si>
-    <t>ОыуgюъГгюZ</t>
-  </si>
-  <si>
-    <t>ШааИЮzцEhк хkb5ЕYlU9Р ЯЁпjэ9иMIИ</t>
-  </si>
-  <si>
-    <t>VЁFЫюAаDРЪ</t>
-  </si>
-  <si>
-    <t>кДрZwПъСХЩ о29гГеоГfЯ yЦьОbЮвшмL</t>
-  </si>
-  <si>
-    <t>VщvвaИЛёПщ</t>
-  </si>
-  <si>
-    <t>tТШuЫJэяtХ ИэдВЪсЮЩЕL ЪМyvXIвФBЙ</t>
-  </si>
-  <si>
-    <t>Vuр9RYдakю</t>
-  </si>
-  <si>
-    <t>ы6бkgПTBн9 ЕЪщхHСФшVJ 5фЪХ4щeаБP</t>
-  </si>
-  <si>
-    <t>AъEДКqчBВh</t>
-  </si>
-  <si>
-    <t>ЧкшЭTuJЕёa Upлв7Tхювk SjМ9ЯцЫыPf</t>
-  </si>
-  <si>
-    <t>ШжNвw7сyZК</t>
-  </si>
-  <si>
-    <t>bШYЖВTeъX2 ЕwгЯЖПlэХУ 4bГщ3щQаЖ5</t>
-  </si>
-  <si>
-    <t>yWГЖswЭSВ0</t>
-  </si>
-  <si>
-    <t>MрЕэЖЗаpЛЁ pЛХуШwвfТъ 9ГРщхХXЙфЭ</t>
-  </si>
-  <si>
-    <t>Уjлш8sйvлk</t>
-  </si>
-  <si>
-    <t>умFgПрРDwl pЫфsцЙи3ьЗ QyЯУmЭогWД</t>
-  </si>
-  <si>
-    <t>д3JqлЪпвмП</t>
-  </si>
-  <si>
-    <t>шзHbuЭyVTп z8ЪwQнёЫбj QМкJПсЕBЙМ</t>
-  </si>
-  <si>
-    <t>фТрzгаgиkй</t>
-  </si>
-  <si>
-    <t>KEЦеоlМWэC 6SЧщкXр7вU iлЁчzжХЁBТ</t>
-  </si>
-  <si>
-    <t>chлОыXЫеwO</t>
-  </si>
-  <si>
-    <t>шЬQсЁттрЕШ ПдИPAМШcpU lПhУэОcуFP</t>
-  </si>
-  <si>
-    <t>АYBгЪAIШФk</t>
-  </si>
-  <si>
-    <t>CЮB3x9кгkd hёУду3ZПэЬ HЬloеtWБпr</t>
-  </si>
-  <si>
-    <t>JдЯДКЭSАqр</t>
-  </si>
-  <si>
-    <t>уagHаyдфГК нo60UkЮюЯД sъЩsЯ4SЛ5o</t>
-  </si>
-  <si>
-    <t>ZnnLЁпMlФE</t>
-  </si>
-  <si>
-    <t>8нб3ЯBЮGрФ ЫёxсxЭвdщП WОЬРщьэbFъ</t>
-  </si>
-  <si>
-    <t>жx2yzфмPЫD</t>
-  </si>
-  <si>
-    <t>PйtыU9оzdП hуоuPдАjJБ ПEqITГmтG2</t>
-  </si>
-  <si>
-    <t>gкbёхЗPХFГ</t>
-  </si>
-  <si>
-    <t>ПЯаОеЛэаЮЦ ЮБСPTwххр7 NsФЩхЩыNк0</t>
-  </si>
-  <si>
-    <t>щToMbЮ8мжв</t>
-  </si>
-  <si>
-    <t>cPСЫМчбFЮъ ЮкDШ9LHTцБ Kоъ2Ъ3ОaБc</t>
-  </si>
-  <si>
-    <t>gъVdПhЪwfh</t>
-  </si>
-  <si>
-    <t>sгсУxЦJE2Q phciё2bоdG ИYZWУХXзэ1</t>
-  </si>
-  <si>
-    <t>БLУHsЮTбiэ</t>
-  </si>
-  <si>
-    <t>ГlчКтUPFyэ МуЗЭSKЯЫ6Z тZЭElEеTАМ</t>
-  </si>
-  <si>
-    <t>Ёп7morаК47</t>
-  </si>
-  <si>
-    <t>ЖЖ512bkmНы HSюNtЦDiзу МkJпеE2Иqз</t>
-  </si>
-  <si>
-    <t>DRГTдj7oхp</t>
-  </si>
-  <si>
-    <t>ЦAJёХпTдzж ЛEPpЖ9nЦЁС 8kLaMЫFrРы</t>
-  </si>
-  <si>
-    <t>VеmАuСИтЩь</t>
-  </si>
-  <si>
-    <t>NзЬgЛуЖЙмc уШХТЛЩЖРqЪ 6xЁГГKыRaу</t>
-  </si>
-  <si>
-    <t>ИцP1жYЁfRI</t>
-  </si>
-  <si>
-    <t>wXёючXdFjЭ aCOQnГLСБО cLrиTмпМAВ</t>
-  </si>
-  <si>
-    <t>вvOfAНОкGП</t>
-  </si>
-  <si>
-    <t>чHdQV4юC20 gRЭЕМcХйFн 3щWэЁЭмiRю</t>
-  </si>
-  <si>
-    <t>ОТ3NZ3LYPТ</t>
-  </si>
-  <si>
-    <t>ЖbьXЭJ1E7Т АBёмЫbhссQ UХуъnQs1KР</t>
-  </si>
-  <si>
-    <t>нAЩээWOШдF</t>
-  </si>
-  <si>
-    <t>В6zЗlЛrЖЦD 1оЯРщхвэii VжqШCKQгEЫ</t>
-  </si>
-  <si>
-    <t>АoМqвТwaвп</t>
-  </si>
-  <si>
-    <t>oЭlеwJзаXЖ РёьHkCKcпЧ а0hIшpжвРM</t>
-  </si>
-  <si>
-    <t>FитаFЮЖHцо</t>
-  </si>
-  <si>
-    <t>ЦОzrnБгМJЪ Zm2Ой5Mvtz ё6ЙУcдЗ5Гv</t>
-  </si>
-  <si>
-    <t>pЙЗлnkДho0</t>
-  </si>
-  <si>
-    <t>к6иNjиeQйД уtLз8ГКZBя ЁmмEХИUтдp</t>
-  </si>
-  <si>
-    <t>lИpЁbемELh</t>
-  </si>
-  <si>
-    <t>ГoввЬrьEЛъ FсЫsVMjQП3 бphжя4ДPхы</t>
-  </si>
-  <si>
-    <t>Ьlc0ЗSФ8ОW</t>
-  </si>
-  <si>
-    <t>ТgТъеaЖьВЦ S0hcДЪU6оШ Ю1ЪУmеyoЩу</t>
-  </si>
-  <si>
-    <t>сfЭDdиХnO9</t>
-  </si>
-  <si>
-    <t>5ёPwfФuКЕч IЮEх2KЧh8l ЦI53Еёщaоs</t>
-  </si>
-  <si>
-    <t>0эsОIoHнzm</t>
+    <t>zгEsBсuЩHЪ 4ЛONNmВм4e ё5ч35В2г1е</t>
+  </si>
+  <si>
+    <t>ЕbэqжЦРДLl</t>
+  </si>
+  <si>
+    <t>Y3cZpкхйСK KkЖrWЪю8дp мSMXхZтEQl</t>
+  </si>
+  <si>
+    <t>ЛгpьqIрхcG</t>
+  </si>
+  <si>
+    <t>УФхИHSxI8a сЖB9zHцTEV ьsяBЛBpвБй</t>
+  </si>
+  <si>
+    <t>мvА4aмОЁ7z</t>
+  </si>
+  <si>
+    <t>Wд0ИиjDd14 gНvIЦlЛиКq г0дSФщOSZр</t>
+  </si>
+  <si>
+    <t>ЛМаRНЩоз1u</t>
+  </si>
+  <si>
+    <t>NdouДxЫПре eНQюЪРВWтЮ мPuиcтэsEИ</t>
+  </si>
+  <si>
+    <t>ZНe1мXs9МА</t>
+  </si>
+  <si>
+    <t>HпАsСSQдФM 4V3RсэФбЛG шl3ъэвгпas</t>
+  </si>
+  <si>
+    <t>ЗрПYцОДЭHП</t>
+  </si>
+  <si>
+    <t>LGЖэqmwbНT МDкТюRM8tб ФзпъzPЗХЪm</t>
+  </si>
+  <si>
+    <t>лI6KкDqhОK</t>
+  </si>
+  <si>
+    <t>я7NfщOOПYn Dр6Иneе4Gд LOСЕonьfиa</t>
+  </si>
+  <si>
+    <t>iрШRЕдСЗжs</t>
+  </si>
+  <si>
+    <t>п1d7hCгFЯy joТgймвБy9 МnЦWЮtыЬ4щ</t>
+  </si>
+  <si>
+    <t>РЙГ2ФтRMЩИ</t>
+  </si>
+  <si>
+    <t>ЩoьsХлуI0ж зMoмьтgйфq Г6йЙдuжOwц</t>
+  </si>
+  <si>
+    <t>го2n8ЭШВЛЪ</t>
+  </si>
+  <si>
+    <t>UСЩBЖgXЮЧF jхчWyмhAy5 кЬ9цRахДПV</t>
+  </si>
+  <si>
+    <t>uЗьЫVЭн1фГ</t>
+  </si>
+  <si>
+    <t>эЙЕюШК8WjS GПСплbлaFю AuКк5ЯC1цw</t>
+  </si>
+  <si>
+    <t>IxgyX7dВhw</t>
+  </si>
+  <si>
+    <t>Ъ6ЗЩйЪЯQdа ШX05mжмBwG кLdgNLфкшТ</t>
+  </si>
+  <si>
+    <t>Р6ЩЬЧ1цsчp</t>
+  </si>
+  <si>
+    <t>щHЭPыYNЭ5с иdуxdе8Хге ПЬн7ЮpкзчЁ</t>
+  </si>
+  <si>
+    <t>бS0ОъцrмфЗ</t>
+  </si>
+  <si>
+    <t>ФYЯШxйЧcуВ Аъёгxъ2оL0 лРiKв7IJпh</t>
+  </si>
+  <si>
+    <t>IFЗэБXRxНй</t>
+  </si>
+  <si>
+    <t>ЬbщjжжЕnъr БЯфQвюСУХ6 ВыpV6ЦGебШ</t>
+  </si>
+  <si>
+    <t>QtТYIvVWьБ</t>
+  </si>
+  <si>
+    <t>DуПОфутwZ4 CиМпSхпvdХ pgДvЭймGЛъ</t>
+  </si>
+  <si>
+    <t>ъЙИВLчFcОV</t>
+  </si>
+  <si>
+    <t>0гВгегэdро DVREqIвB7ц d5kQЙЩфСЧi</t>
+  </si>
+  <si>
+    <t>gрБж1ВТ3Ог</t>
+  </si>
+  <si>
+    <t>GMPхXСЦШoк rTыomДаШъЫ STмwТЖFjaЖ</t>
+  </si>
+  <si>
+    <t>74АuуюнсfD</t>
+  </si>
+  <si>
+    <t>рЗИщ1kЭЯhП эсэФРБeмhК H9СпшlВУЦП</t>
+  </si>
+  <si>
+    <t>uHvрiрьЪЛl</t>
+  </si>
+  <si>
+    <t>ЛШRJFЮЭuCн zеevжъ2ьcx mVСлйrцQKЫ</t>
+  </si>
+  <si>
+    <t>qM9PrкуЗ1у</t>
+  </si>
+  <si>
+    <t>СGМйЧMMмЩГ СКuhшЛvfmТ НшоЙAPoрuб</t>
+  </si>
+  <si>
+    <t>PtётmVГRnD</t>
+  </si>
+  <si>
+    <t>pмюcШАШЖсщ МюмtтДCCsd FдоТъеHZЯЩ</t>
+  </si>
+  <si>
+    <t>iwdШЭQDSбd</t>
+  </si>
+  <si>
+    <t>2pмlлоjЫKF УуФЛаПсPhP й4bmAnUwяе</t>
+  </si>
+  <si>
+    <t>RuфтcЮЭwcЯ</t>
+  </si>
+  <si>
+    <t>зЫГjPа1JЕц ЗЕjлрЧuNЯд WvГtCfJHlч</t>
+  </si>
+  <si>
+    <t>оutйёGПomd</t>
+  </si>
+  <si>
+    <t>ЭвJтГyBмПy nёJ7ги9МЭ0 шщlЫшпOЬуФ</t>
+  </si>
+  <si>
+    <t>ьВЦ3ШUЕizн</t>
+  </si>
+  <si>
+    <t>ЙgЫвЖTcD3У К4ёTUsuArV cПwoчдЖYыU</t>
+  </si>
+  <si>
+    <t>ЗсеeAk7ЩШф</t>
+  </si>
+  <si>
+    <t>ёхiРY6tуэQ fлJ7кмMМzб ДnoОЫlbгQд</t>
+  </si>
+  <si>
+    <t>наЦnC8mUЕя</t>
+  </si>
+  <si>
+    <t>vЕЙВXzЖGH1 5вvQlЮVEёф BиъASФpNFщ</t>
+  </si>
+  <si>
+    <t>3GЁ9B3уUyC</t>
+  </si>
+  <si>
+    <t>БЁчФLeKыeл иZиПлIк8ыО ДАSbйZupпr</t>
+  </si>
+  <si>
+    <t>ЫAZKН9CэДя</t>
+  </si>
+  <si>
+    <t>чэhr43щ9gж ЩбяAш4ёw3j kтВюuД4Jсa</t>
+  </si>
+  <si>
+    <t>OqЬZ2UуAЙA</t>
+  </si>
+  <si>
+    <t>yБDЫaUтzhц ЬNТаЗВГiЩр УWavfщЖBKf</t>
+  </si>
+  <si>
+    <t>CNJ0СhЧeyf</t>
+  </si>
+  <si>
+    <t>ЛЦОbкыQlту TSK1о4рvyq тБЗfnНчвsV</t>
+  </si>
+  <si>
+    <t>ИH0lъЭЯuГЯ</t>
+  </si>
+  <si>
+    <t>YПАМTmnйх3 бTВ6Аtцзья UЕЦ2U62фgФ</t>
+  </si>
+  <si>
+    <t>мЮОyvЙЭрDB</t>
+  </si>
+  <si>
+    <t>htРЁfaЦипя NЮТГdДБцДи кК0dHлпWЮs</t>
+  </si>
+  <si>
+    <t>цПЫTFюмkнп</t>
+  </si>
+  <si>
+    <t>ЮiьkоcЕXEк 13зЁКjmjIJ ФЩKNkКЕРЯЯ</t>
+  </si>
+  <si>
+    <t>аqПеVBUyкП</t>
+  </si>
+  <si>
+    <t>юULАRpLдРX QB8ёеYwRиЬ ЬFwь3UнgяA</t>
+  </si>
+  <si>
+    <t>яYаbдhф5кп</t>
+  </si>
+  <si>
+    <t>LЭУуЛВкxфэ кTтиVбсXоЮ DОЯPIBгЬдя</t>
+  </si>
+  <si>
+    <t>к1GНёшWОВт</t>
+  </si>
+  <si>
+    <t>рP3yVxaMQB aolцDMмdEШ 7Лiмн4xMuд</t>
+  </si>
+  <si>
+    <t>Яй0ЛHОфЩ5ш</t>
+  </si>
+  <si>
+    <t>иKаPxxBjСИ iВЮtWЧЪQpP еКбXNzЗdЕП</t>
+  </si>
+  <si>
+    <t>ПХп8ЫйюЧАШ</t>
+  </si>
+  <si>
+    <t>7ZtwД0HZGИ pрюдlBНqqq BGYЩKVpйzО</t>
+  </si>
+  <si>
+    <t>s8kЩu8Жxрц</t>
+  </si>
+  <si>
+    <t>рУШрЗpдHОё Ю7huR9иkюQ IьИ6юЪFхюЪ</t>
+  </si>
+  <si>
+    <t>акДЪTyBгфh</t>
+  </si>
+  <si>
+    <t>4VaaouИYdT ФrлТAkш9Хc AзnнПsVпЙМ</t>
+  </si>
+  <si>
+    <t>СoЙZБМтp6Z</t>
+  </si>
+  <si>
+    <t>ЙВFцЧъэХHU RУтрЕЛрИчЭ ЖаУ5ЮХГHzШ</t>
+  </si>
+  <si>
+    <t>хЦKdпdLSVЬ</t>
+  </si>
+  <si>
+    <t>иЛFhЦZЁFAR эжЗЙearЧMw Vц2ХCР2ыkk</t>
+  </si>
+  <si>
+    <t>ЯЛыcРFmTsd</t>
+  </si>
+  <si>
+    <t>QЦMпЮgbЫkQ q7РubХЁlue NшnU6hАЦгВ</t>
+  </si>
+  <si>
+    <t>TФФPУuJwЭy</t>
+  </si>
+  <si>
+    <t>JдkжтЬaтеr ьWvагojЫФЭ щ16яeWВМtU</t>
+  </si>
+  <si>
+    <t>ЪЗhрvнvйyI</t>
+  </si>
+  <si>
+    <t>yБQлнhщjЯЧ ИыbлP1Х8РН UБЪзxТРpVи</t>
+  </si>
+  <si>
+    <t>iBИчci2ьPj</t>
+  </si>
+  <si>
+    <t>ьКЖtГPГpUТ RИMrБпСЕcк CОкGфЙиeqO</t>
+  </si>
+  <si>
+    <t>СвfУнрeЕ5Ж</t>
+  </si>
+  <si>
+    <t>54PцрегMйР HёHВcаoYYK РиzLмsек1Я</t>
+  </si>
+  <si>
+    <t>fЛВtФЪД7Dm</t>
+  </si>
+  <si>
+    <t>lЙцoZЦСjqf JV5D5VЦhзы 5ЭЙЙЬэ7ДxR</t>
+  </si>
+  <si>
+    <t>ЩтqDPhyBlф</t>
+  </si>
+  <si>
+    <t>DМлqN0ЕШgз LBFшМх5NYy ГvЧнEщВLщг</t>
+  </si>
+  <si>
+    <t>jBОЩЩbядUН</t>
+  </si>
+  <si>
+    <t>ЗFёмэуУМQё ТаТжPGоgЗW nqЬбFУWGUD</t>
+  </si>
+  <si>
+    <t>кUЭa4ihНы5</t>
+  </si>
+  <si>
+    <t>ЦЫ6дьpusYТ ОЮиpvПtЬPR ХЩcdБШTrgТ</t>
+  </si>
+  <si>
+    <t>ЮU1пBа0ъАЪ</t>
+  </si>
+  <si>
+    <t>7ш6МёыCпмt dВMЕхЭуывJ 0ыЪЙКЩцFHК</t>
+  </si>
+  <si>
+    <t>pщTI5хл1Eг</t>
+  </si>
+  <si>
+    <t>Сз1TчrС6ъD ФFYJ9ЯэЧsп RБFjIЬ6ЩBь</t>
+  </si>
+  <si>
+    <t>иэaсёеDЗNt</t>
+  </si>
+  <si>
+    <t>ьи7сюгrzеш xфхкЭССnMx дчСНRярDoI</t>
+  </si>
+  <si>
+    <t>весCуИdkЧа</t>
+  </si>
+  <si>
+    <t>ро8ЕJЬккРh сIdwщЗAQ0o т1mтKvдrЫr</t>
+  </si>
+  <si>
+    <t>4й0RРрНшУЭ</t>
+  </si>
+  <si>
+    <t>ИqШтTиz0SЭ eсle9lhжLd ыvЩaйlrЩtf</t>
+  </si>
+  <si>
+    <t>СЖfУгЁAWVc</t>
+  </si>
+  <si>
+    <t>oGЯъM1MOжо УН6Ы0OfUЙx зHжlрТьu3Ё</t>
+  </si>
+  <si>
+    <t>дkBёЪБKУгW</t>
+  </si>
+  <si>
+    <t>е9cp3JЖZGы uяыNЫv2Л4ь АTсa1кdFЭd</t>
+  </si>
+  <si>
+    <t>luQlХzЩ9з6</t>
+  </si>
+  <si>
+    <t>cXЬъvИqoцМ 3еЭMхiaDfУ Ж5uМОЙейзН</t>
+  </si>
+  <si>
+    <t>оЗ3ъАYlзNф</t>
+  </si>
+  <si>
+    <t>F22мГbnfЙГ Пvсё7ЦTЯjH AЭdDx42ЩAg</t>
+  </si>
+  <si>
+    <t>ЩЁJЗ0уЗрAН</t>
+  </si>
+  <si>
+    <t>8dLьЧQДIыo ЁIU5idU6Dн ГGиwrЯqО2J</t>
+  </si>
+  <si>
+    <t>PзаЕОюf2аe</t>
+  </si>
+  <si>
+    <t>ГМv5ТъНGйщ ФBюDц2ЯбЭб ЛцeGЮEsаee</t>
+  </si>
+  <si>
+    <t>еmщwёыcюJk</t>
+  </si>
+  <si>
+    <t>НХЧЧ1АиЦаW злvfTЕvЗеP NРoуAмWp5г</t>
+  </si>
+  <si>
+    <t>WеМУ2oэШцВ</t>
+  </si>
+  <si>
+    <t>лвдЮЛhГHkI бmЩHЗqЧнЮ8 ЛЬHКИхНОфК</t>
+  </si>
+  <si>
+    <t>LqсJdейМ0H</t>
+  </si>
+  <si>
+    <t>MФ3иЙвПMСШ qЯCДDВODHч ЙЁBФдSЮю8V</t>
+  </si>
+  <si>
+    <t>WjъЁLЭвEПГ</t>
+  </si>
+  <si>
+    <t>зулЬНЛцпЖй RxgбиfЪgШB сйэYPyJИъL</t>
+  </si>
+  <si>
+    <t>D0BwмеYЗUБ</t>
+  </si>
+  <si>
+    <t>АKУЛVшSzиM ЮbWPюфQТzБ С68hДOЮэNь</t>
+  </si>
+  <si>
+    <t>иRЁCpiKaХf</t>
+  </si>
+  <si>
+    <t>ЧAрБaОеЮxM ъhwyщS2dUя Ы5CVчх8lhы</t>
+  </si>
+  <si>
+    <t>СяСSJ0IюЙj</t>
+  </si>
+  <si>
+    <t>zтфяtVсHАb rLщсЕPCЪТч Х6оKUvОЙшэ</t>
+  </si>
+  <si>
+    <t>шХl4bиTВia</t>
+  </si>
+  <si>
+    <t>КЪGuпРФuАЪ п3KЧ8G0AEЩ 9CйЩaУпzfс</t>
+  </si>
+  <si>
+    <t>BпypSgSъEЕ</t>
+  </si>
+  <si>
+    <t>UDrbСbKrrF НююъбЬvhйП tцVвеЖVSУ1</t>
+  </si>
+  <si>
+    <t>фъюcИVteЕO</t>
+  </si>
+  <si>
+    <t>ИX1ОщDYиkй ЧЭJGую6Т48 uцаNXщкLDН</t>
+  </si>
+  <si>
+    <t>ШGЯБZдXбАT</t>
+  </si>
+  <si>
+    <t>nnфDгWА9Ши ОrAJBdИКвЧ хШГG4rXwB8</t>
+  </si>
+  <si>
+    <t>ЮЩhfкЕWрEw</t>
+  </si>
+  <si>
+    <t>JPНССxГёНU ДВОЕapgядO vяyыAЙоOоп</t>
+  </si>
+  <si>
+    <t>leх1кёнiHn</t>
+  </si>
+  <si>
+    <t>ЯШЧz2рaXъж ЪLЬнSаНэёЩ YЪМЮgIжJЩw</t>
+  </si>
+  <si>
+    <t>эBКDДYдшcV</t>
+  </si>
+  <si>
+    <t>фR5BOеЕхГ4 YE5ЕёВЩUжУ XГдвTuмw1S</t>
+  </si>
+  <si>
+    <t>foЫW5f2K7V</t>
+  </si>
+  <si>
+    <t>HСLЯЙХёvЖy иQ4XkбЛеRФ IкZo7ШцNlл</t>
+  </si>
+  <si>
+    <t>А7aC8йfГуЧ</t>
+  </si>
+  <si>
+    <t>UУОчGе5SЯц JВЙotJwхЦs bаHАtуfXЖЖ</t>
+  </si>
+  <si>
+    <t>ZДКЙDdЬDdM</t>
+  </si>
+  <si>
+    <t>MЬэНЪUлБЕk jяТшNешбms ЗХkbРEвFBw</t>
+  </si>
+  <si>
+    <t>ШсчеPмуmГr</t>
+  </si>
+  <si>
+    <t>unxЩЫЛэPcР ФЖMиВгfСПН QЖQЙnНEN0И</t>
+  </si>
+  <si>
+    <t>дsPзёVзЖza</t>
+  </si>
+  <si>
+    <t>цзЗ3AГ5ЛD8 нёOГЭ9ЩЭfъ W2С5KЯTоЕH</t>
+  </si>
+  <si>
+    <t>ЫФ6чrЭYбOС</t>
+  </si>
+  <si>
+    <t>тwNГtsпыёХ wMюOсэнмвR ЭёiQqД5lкX</t>
+  </si>
+  <si>
+    <t>аrAоЪaЛГ2u</t>
+  </si>
+  <si>
+    <t>шIКЗыА1и5х АЗпуLЯРWeП xKцyуНмeф3</t>
+  </si>
+  <si>
+    <t>цЛО4KыHZЪЖ</t>
+  </si>
+  <si>
+    <t>lхMxqRсШtл ОhAТъ2ШЦDц GфШгЖоZKСЩ</t>
+  </si>
+  <si>
+    <t>МгRXL5uмGГ</t>
+  </si>
+  <si>
+    <t>ЧИpLлsЩЫуG dzEъП26Cб8 ЙИPПRVGЬХС</t>
+  </si>
+  <si>
+    <t>нЛЁвГаоМнО</t>
+  </si>
+  <si>
+    <t>SPа0YlTrПb TакJIъMsEХ щKиVkiяrЮм</t>
+  </si>
+  <si>
+    <t>t5xKDуЁаеs</t>
+  </si>
+  <si>
+    <t>шvЧЯ1IЫiЛk PыKDYЭБс5Ц gжqхOчЯлцI</t>
+  </si>
+  <si>
+    <t>LвяЭюЗРRцП</t>
+  </si>
+  <si>
+    <t>lЭЫм3Wdu1Ъ rАZгсeAMв8 МФзЬRАmИys</t>
+  </si>
+  <si>
+    <t>aMMЭьeЦШfz</t>
+  </si>
+  <si>
+    <t>цмЗstСbжИж жЖмахЕИhXг O59ЙИrЯoЦЖ</t>
+  </si>
+  <si>
+    <t>wЩFнuhщбwр</t>
+  </si>
+  <si>
+    <t>У1vтьrяqыц ЦэmУдXlSiе M8ЖTшHFЪхP</t>
+  </si>
+  <si>
+    <t>ДюnЦv6йГЙё</t>
+  </si>
+  <si>
+    <t>tПнoнИfы4Р ГРуuVHЕ1Qy ХцKЦСй2шЛЫ</t>
+  </si>
+  <si>
+    <t>EEUпЖ9Roэ4</t>
+  </si>
+  <si>
+    <t>СаZ1pэьvЬч eNДpёNV4жЪ НiХqюыZITw</t>
+  </si>
+  <si>
+    <t>amLxzrц0vs</t>
+  </si>
+  <si>
+    <t>ы3ЙSЪMз9aз лЁё1XzcЮGы qияoчУEг7Щ</t>
+  </si>
+  <si>
+    <t>ЖpЦCeЭBi1в</t>
+  </si>
+  <si>
+    <t>яЭf8СjnшлЁ чCЗNЮvфROА ИТфЦDЖз3аb</t>
+  </si>
+  <si>
+    <t>сйКГyшNW7Э</t>
+  </si>
+  <si>
+    <t>GМ3пЛУДgФ9 V2CN1ХYвUГ tJAЖjIlъоD</t>
+  </si>
+  <si>
+    <t>ьMBхьrЪоvr</t>
+  </si>
+  <si>
+    <t>Ч7eЗГЗJщъЙ 0з4ЧджКШТе Tж4нщъSНfч</t>
+  </si>
+  <si>
+    <t>mw6CиюДTСB</t>
+  </si>
+  <si>
+    <t>РvmBCи5Дыe яBяwлBrнЮИ ХйёЬИzKИМj</t>
+  </si>
+  <si>
+    <t>чшvЛпxЮ2Rл</t>
   </si>
   <si>
     <t>Ссылка для скачивания: vk.com/btvrfedsf</t>
@@ -643,7 +643,7 @@
     <t>Отчет сформировал(-а): Маханов Мадияр</t>
   </si>
   <si>
-    <t>Wed Jun 20 13:23:36 ALMT 2018</t>
+    <t>Thu Jun 21 16:05:09 ALMT 2018</t>
   </si>
 </sst>
 </file>
@@ -1027,16 +1027,16 @@
         <v>8</v>
       </c>
       <c r="C4" s="0">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="D4" s="0">
-        <v>1060.4000244140625</v>
+        <v>856.9000244140625</v>
       </c>
       <c r="E4" s="0">
-        <v>662.2000122070312</v>
+        <v>280.5</v>
       </c>
       <c r="F4" s="0">
-        <v>166.10000610351562</v>
+        <v>915.2000122070312</v>
       </c>
     </row>
     <row r="5">
@@ -1047,16 +1047,16 @@
         <v>10</v>
       </c>
       <c r="C5" s="0">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D5" s="0">
-        <v>532.4000244140625</v>
+        <v>731.5</v>
       </c>
       <c r="E5" s="0">
-        <v>533.5</v>
+        <v>754.6000366210938</v>
       </c>
       <c r="F5" s="0">
-        <v>214.5</v>
+        <v>291.5</v>
       </c>
     </row>
     <row r="6">
@@ -1067,16 +1067,16 @@
         <v>12</v>
       </c>
       <c r="C6" s="0">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D6" s="0">
-        <v>111.10000610351562</v>
+        <v>451.0</v>
       </c>
       <c r="E6" s="0">
-        <v>795.2999877929688</v>
+        <v>746.9000244140625</v>
       </c>
       <c r="F6" s="0">
-        <v>212.3000030517578</v>
+        <v>229.90000915527344</v>
       </c>
     </row>
     <row r="7">
@@ -1087,16 +1087,16 @@
         <v>14</v>
       </c>
       <c r="C7" s="0">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="D7" s="0">
-        <v>22.0</v>
+        <v>388.3000183105469</v>
       </c>
       <c r="E7" s="0">
-        <v>330.0</v>
+        <v>114.4000015258789</v>
       </c>
       <c r="F7" s="0">
-        <v>215.60000610351562</v>
+        <v>260.70001220703125</v>
       </c>
     </row>
     <row r="8">
@@ -1107,16 +1107,16 @@
         <v>16</v>
       </c>
       <c r="C8" s="0">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="D8" s="0">
-        <v>623.7000122070312</v>
+        <v>914.1000366210938</v>
       </c>
       <c r="E8" s="0">
-        <v>693.0</v>
+        <v>946.0</v>
       </c>
       <c r="F8" s="0">
-        <v>1004.300048828125</v>
+        <v>501.6000061035156</v>
       </c>
     </row>
     <row r="9">
@@ -1127,16 +1127,16 @@
         <v>18</v>
       </c>
       <c r="C9" s="0">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="D9" s="0">
-        <v>156.1999969482422</v>
+        <v>1052.7000732421875</v>
       </c>
       <c r="E9" s="0">
-        <v>68.20000457763672</v>
+        <v>464.20001220703125</v>
       </c>
       <c r="F9" s="0">
-        <v>554.4000244140625</v>
+        <v>437.8000183105469</v>
       </c>
     </row>
     <row r="10">
@@ -1147,16 +1147,16 @@
         <v>20</v>
       </c>
       <c r="C10" s="0">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="D10" s="0">
-        <v>744.7000122070312</v>
+        <v>1026.300048828125</v>
       </c>
       <c r="E10" s="0">
-        <v>44.0</v>
+        <v>176.0</v>
       </c>
       <c r="F10" s="0">
-        <v>345.3999938964844</v>
+        <v>276.1000061035156</v>
       </c>
     </row>
     <row r="11">
@@ -1167,16 +1167,16 @@
         <v>22</v>
       </c>
       <c r="C11" s="0">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="D11" s="0">
-        <v>496.1000061035156</v>
+        <v>85.80000305175781</v>
       </c>
       <c r="E11" s="0">
-        <v>236.5</v>
+        <v>627.0</v>
       </c>
       <c r="F11" s="0">
-        <v>605.0</v>
+        <v>242.0</v>
       </c>
     </row>
     <row r="12">
@@ -1187,16 +1187,16 @@
         <v>24</v>
       </c>
       <c r="C12" s="0">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="D12" s="0">
-        <v>760.1000366210938</v>
+        <v>583.0</v>
       </c>
       <c r="E12" s="0">
-        <v>916.300048828125</v>
+        <v>4.400000095367432</v>
       </c>
       <c r="F12" s="0">
-        <v>683.1000366210938</v>
+        <v>1082.4000244140625</v>
       </c>
     </row>
     <row r="13">
@@ -1207,16 +1207,16 @@
         <v>26</v>
       </c>
       <c r="C13" s="0">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D13" s="0">
-        <v>1004.300048828125</v>
+        <v>454.3000183105469</v>
       </c>
       <c r="E13" s="0">
-        <v>311.3000183105469</v>
+        <v>1079.0999755859375</v>
       </c>
       <c r="F13" s="0">
-        <v>886.6000366210938</v>
+        <v>716.1000366210938</v>
       </c>
     </row>
     <row r="14">
@@ -1227,16 +1227,16 @@
         <v>28</v>
       </c>
       <c r="C14" s="0">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="D14" s="0">
-        <v>580.7999877929688</v>
+        <v>1016.4000244140625</v>
       </c>
       <c r="E14" s="0">
-        <v>260.70001220703125</v>
+        <v>955.9000244140625</v>
       </c>
       <c r="F14" s="0">
-        <v>611.6000366210938</v>
+        <v>949.300048828125</v>
       </c>
     </row>
     <row r="15">
@@ -1247,16 +1247,16 @@
         <v>30</v>
       </c>
       <c r="C15" s="0">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="D15" s="0">
-        <v>657.7999877929688</v>
+        <v>729.2999877929688</v>
       </c>
       <c r="E15" s="0">
-        <v>107.80000305175781</v>
+        <v>375.1000061035156</v>
       </c>
       <c r="F15" s="0">
-        <v>311.3000183105469</v>
+        <v>387.20001220703125</v>
       </c>
     </row>
     <row r="16">
@@ -1267,16 +1267,16 @@
         <v>32</v>
       </c>
       <c r="C16" s="0">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="D16" s="0">
-        <v>688.6000366210938</v>
+        <v>1094.5</v>
       </c>
       <c r="E16" s="0">
-        <v>113.30000305175781</v>
+        <v>466.4000244140625</v>
       </c>
       <c r="F16" s="0">
-        <v>855.800048828125</v>
+        <v>311.3000183105469</v>
       </c>
     </row>
     <row r="17">
@@ -1287,16 +1287,16 @@
         <v>34</v>
       </c>
       <c r="C17" s="0">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D17" s="0">
-        <v>691.9000244140625</v>
+        <v>281.6000061035156</v>
       </c>
       <c r="E17" s="0">
-        <v>464.20001220703125</v>
+        <v>2.200000047683716</v>
       </c>
       <c r="F17" s="0">
-        <v>170.5</v>
+        <v>151.8000030517578</v>
       </c>
     </row>
     <row r="18">
@@ -1307,16 +1307,16 @@
         <v>36</v>
       </c>
       <c r="C18" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D18" s="0">
-        <v>31.900001525878906</v>
+        <v>224.40000915527344</v>
       </c>
       <c r="E18" s="0">
-        <v>271.70001220703125</v>
+        <v>579.7000122070312</v>
       </c>
       <c r="F18" s="0">
-        <v>419.1000061035156</v>
+        <v>475.20001220703125</v>
       </c>
     </row>
     <row r="19">
@@ -1327,16 +1327,16 @@
         <v>38</v>
       </c>
       <c r="C19" s="0">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="D19" s="0">
-        <v>652.2999877929688</v>
+        <v>679.7999877929688</v>
       </c>
       <c r="E19" s="0">
-        <v>601.7000122070312</v>
+        <v>894.300048828125</v>
       </c>
       <c r="F19" s="0">
-        <v>160.60000610351562</v>
+        <v>1025.2000732421875</v>
       </c>
     </row>
     <row r="20">
@@ -1347,16 +1347,16 @@
         <v>40</v>
       </c>
       <c r="C20" s="0">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D20" s="0">
-        <v>119.9000015258789</v>
+        <v>72.5999984741211</v>
       </c>
       <c r="E20" s="0">
-        <v>321.20001220703125</v>
+        <v>389.3999938964844</v>
       </c>
       <c r="F20" s="0">
-        <v>762.2999877929688</v>
+        <v>383.8999938964844</v>
       </c>
     </row>
     <row r="21">
@@ -1367,16 +1367,16 @@
         <v>42</v>
       </c>
       <c r="C21" s="0">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D21" s="0">
-        <v>235.40000915527344</v>
+        <v>675.4000244140625</v>
       </c>
       <c r="E21" s="0">
-        <v>435.6000061035156</v>
+        <v>669.9000244140625</v>
       </c>
       <c r="F21" s="0">
-        <v>250.8000030517578</v>
+        <v>643.5</v>
       </c>
     </row>
     <row r="22">
@@ -1387,16 +1387,16 @@
         <v>44</v>
       </c>
       <c r="C22" s="0">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="D22" s="0">
-        <v>519.2000122070312</v>
+        <v>1096.7000732421875</v>
       </c>
       <c r="E22" s="0">
-        <v>881.1000366210938</v>
+        <v>41.79999923706055</v>
       </c>
       <c r="F22" s="0">
-        <v>760.1000366210938</v>
+        <v>819.5</v>
       </c>
     </row>
     <row r="23">
@@ -1407,16 +1407,16 @@
         <v>46</v>
       </c>
       <c r="C23" s="0">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D23" s="0">
-        <v>927.300048828125</v>
+        <v>1063.7000732421875</v>
       </c>
       <c r="E23" s="0">
-        <v>188.10000610351562</v>
+        <v>381.70001220703125</v>
       </c>
       <c r="F23" s="0">
-        <v>942.7000122070312</v>
+        <v>762.2999877929688</v>
       </c>
     </row>
     <row r="24">
@@ -1427,16 +1427,16 @@
         <v>48</v>
       </c>
       <c r="C24" s="0">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="D24" s="0">
-        <v>728.2000122070312</v>
+        <v>1053.800048828125</v>
       </c>
       <c r="E24" s="0">
-        <v>38.5</v>
+        <v>257.3999938964844</v>
       </c>
       <c r="F24" s="0">
-        <v>1060.4000244140625</v>
+        <v>916.300048828125</v>
       </c>
     </row>
     <row r="25">
@@ -1447,16 +1447,16 @@
         <v>50</v>
       </c>
       <c r="C25" s="0">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="D25" s="0">
-        <v>636.9000244140625</v>
+        <v>559.9000244140625</v>
       </c>
       <c r="E25" s="0">
-        <v>211.20001220703125</v>
+        <v>204.60000610351562</v>
       </c>
       <c r="F25" s="0">
-        <v>412.5</v>
+        <v>18.700000762939453</v>
       </c>
     </row>
     <row r="26">
@@ -1467,16 +1467,16 @@
         <v>52</v>
       </c>
       <c r="C26" s="0">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="D26" s="0">
-        <v>537.9000244140625</v>
+        <v>563.2000122070312</v>
       </c>
       <c r="E26" s="0">
-        <v>271.70001220703125</v>
+        <v>700.7000122070312</v>
       </c>
       <c r="F26" s="0">
-        <v>567.6000366210938</v>
+        <v>526.9000244140625</v>
       </c>
     </row>
     <row r="27">
@@ -1487,16 +1487,16 @@
         <v>54</v>
       </c>
       <c r="C27" s="0">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D27" s="0">
-        <v>1091.2000732421875</v>
+        <v>843.7000122070312</v>
       </c>
       <c r="E27" s="0">
-        <v>236.5</v>
+        <v>95.70000457763672</v>
       </c>
       <c r="F27" s="0">
-        <v>734.7999877929688</v>
+        <v>226.60000610351562</v>
       </c>
     </row>
     <row r="28">
@@ -1507,16 +1507,16 @@
         <v>56</v>
       </c>
       <c r="C28" s="0">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D28" s="0">
-        <v>490.6000061035156</v>
+        <v>887.7000122070312</v>
       </c>
       <c r="E28" s="0">
-        <v>746.9000244140625</v>
+        <v>812.9000244140625</v>
       </c>
       <c r="F28" s="0">
-        <v>865.7000122070312</v>
+        <v>151.8000030517578</v>
       </c>
     </row>
     <row r="29">
@@ -1527,16 +1527,16 @@
         <v>58</v>
       </c>
       <c r="C29" s="0">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="D29" s="0">
-        <v>834.9000244140625</v>
+        <v>886.6000366210938</v>
       </c>
       <c r="E29" s="0">
-        <v>1026.300048828125</v>
+        <v>534.6000366210938</v>
       </c>
       <c r="F29" s="0">
-        <v>344.3000183105469</v>
+        <v>572.0</v>
       </c>
     </row>
     <row r="30">
@@ -1547,16 +1547,16 @@
         <v>60</v>
       </c>
       <c r="C30" s="0">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="D30" s="0">
-        <v>987.800048828125</v>
+        <v>425.70001220703125</v>
       </c>
       <c r="E30" s="0">
-        <v>990.0</v>
+        <v>983.4000244140625</v>
       </c>
       <c r="F30" s="0">
-        <v>189.1999969482422</v>
+        <v>303.6000061035156</v>
       </c>
     </row>
     <row r="31">
@@ -1567,16 +1567,16 @@
         <v>62</v>
       </c>
       <c r="C31" s="0">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="D31" s="0">
-        <v>826.1000366210938</v>
+        <v>1046.0999755859375</v>
       </c>
       <c r="E31" s="0">
-        <v>952.6000366210938</v>
+        <v>453.20001220703125</v>
       </c>
       <c r="F31" s="0">
-        <v>397.1000061035156</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="32">
@@ -1587,16 +1587,16 @@
         <v>64</v>
       </c>
       <c r="C32" s="0">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="D32" s="0">
-        <v>657.7999877929688</v>
+        <v>629.2000122070312</v>
       </c>
       <c r="E32" s="0">
-        <v>312.3999938964844</v>
+        <v>348.70001220703125</v>
       </c>
       <c r="F32" s="0">
-        <v>529.1000366210938</v>
+        <v>647.9000244140625</v>
       </c>
     </row>
     <row r="33">
@@ -1607,16 +1607,16 @@
         <v>66</v>
       </c>
       <c r="C33" s="0">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="D33" s="0">
-        <v>486.20001220703125</v>
+        <v>862.4000244140625</v>
       </c>
       <c r="E33" s="0">
-        <v>1010.9000244140625</v>
+        <v>686.4000244140625</v>
       </c>
       <c r="F33" s="0">
-        <v>1012.0</v>
+        <v>535.7000122070312</v>
       </c>
     </row>
     <row r="34">
@@ -1627,16 +1627,16 @@
         <v>68</v>
       </c>
       <c r="C34" s="0">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="D34" s="0">
-        <v>400.3999938964844</v>
+        <v>744.7000122070312</v>
       </c>
       <c r="E34" s="0">
-        <v>708.4000244140625</v>
+        <v>898.7000122070312</v>
       </c>
       <c r="F34" s="0">
-        <v>942.7000122070312</v>
+        <v>224.40000915527344</v>
       </c>
     </row>
     <row r="35">
@@ -1647,16 +1647,16 @@
         <v>70</v>
       </c>
       <c r="C35" s="0">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D35" s="0">
-        <v>1086.800048828125</v>
+        <v>115.5</v>
       </c>
       <c r="E35" s="0">
-        <v>281.6000061035156</v>
+        <v>1032.9000244140625</v>
       </c>
       <c r="F35" s="0">
-        <v>683.1000366210938</v>
+        <v>1053.800048828125</v>
       </c>
     </row>
     <row r="36">
@@ -1667,16 +1667,16 @@
         <v>72</v>
       </c>
       <c r="C36" s="0">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D36" s="0">
-        <v>907.5</v>
+        <v>558.7999877929688</v>
       </c>
       <c r="E36" s="0">
-        <v>939.4000244140625</v>
+        <v>698.5</v>
       </c>
       <c r="F36" s="0">
-        <v>205.6999969482422</v>
+        <v>559.9000244140625</v>
       </c>
     </row>
     <row r="37">
@@ -1687,16 +1687,16 @@
         <v>74</v>
       </c>
       <c r="C37" s="0">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D37" s="0">
-        <v>976.800048828125</v>
+        <v>689.7000122070312</v>
       </c>
       <c r="E37" s="0">
-        <v>265.1000061035156</v>
+        <v>281.6000061035156</v>
       </c>
       <c r="F37" s="0">
-        <v>1057.0999755859375</v>
+        <v>91.30000305175781</v>
       </c>
     </row>
     <row r="38">
@@ -1707,16 +1707,16 @@
         <v>76</v>
       </c>
       <c r="C38" s="0">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="D38" s="0">
-        <v>643.5</v>
+        <v>1019.7000122070312</v>
       </c>
       <c r="E38" s="0">
-        <v>301.3999938964844</v>
+        <v>800.7999877929688</v>
       </c>
       <c r="F38" s="0">
-        <v>300.3000183105469</v>
+        <v>759.0</v>
       </c>
     </row>
     <row r="39">
@@ -1727,16 +1727,16 @@
         <v>78</v>
       </c>
       <c r="C39" s="0">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="D39" s="0">
-        <v>992.2000122070312</v>
+        <v>1058.2000732421875</v>
       </c>
       <c r="E39" s="0">
-        <v>707.2999877929688</v>
+        <v>823.9000244140625</v>
       </c>
       <c r="F39" s="0">
-        <v>104.5</v>
+        <v>953.7000122070312</v>
       </c>
     </row>
     <row r="40">
@@ -1747,16 +1747,16 @@
         <v>80</v>
       </c>
       <c r="C40" s="0">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="D40" s="0">
-        <v>685.2999877929688</v>
+        <v>369.6000061035156</v>
       </c>
       <c r="E40" s="0">
-        <v>324.5</v>
+        <v>913.0</v>
       </c>
       <c r="F40" s="0">
-        <v>33.0</v>
+        <v>251.90000915527344</v>
       </c>
     </row>
     <row r="41">
@@ -1767,16 +1767,16 @@
         <v>82</v>
       </c>
       <c r="C41" s="0">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="D41" s="0">
-        <v>325.6000061035156</v>
+        <v>235.40000915527344</v>
       </c>
       <c r="E41" s="0">
-        <v>852.5</v>
+        <v>511.5</v>
       </c>
       <c r="F41" s="0">
-        <v>90.20000457763672</v>
+        <v>817.2999877929688</v>
       </c>
     </row>
     <row r="42">
@@ -1787,16 +1787,16 @@
         <v>84</v>
       </c>
       <c r="C42" s="0">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D42" s="0">
-        <v>337.70001220703125</v>
+        <v>801.9000244140625</v>
       </c>
       <c r="E42" s="0">
-        <v>1049.4000244140625</v>
+        <v>929.5</v>
       </c>
       <c r="F42" s="0">
-        <v>863.5</v>
+        <v>28.600000381469727</v>
       </c>
     </row>
     <row r="43">
@@ -1807,16 +1807,16 @@
         <v>86</v>
       </c>
       <c r="C43" s="0">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="D43" s="0">
-        <v>300.3000183105469</v>
+        <v>321.20001220703125</v>
       </c>
       <c r="E43" s="0">
-        <v>617.1000366210938</v>
+        <v>410.3000183105469</v>
       </c>
       <c r="F43" s="0">
-        <v>223.3000030517578</v>
+        <v>368.5</v>
       </c>
     </row>
     <row r="44">
@@ -1827,16 +1827,16 @@
         <v>88</v>
       </c>
       <c r="C44" s="0">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D44" s="0">
-        <v>996.6000366210938</v>
+        <v>314.6000061035156</v>
       </c>
       <c r="E44" s="0">
-        <v>303.6000061035156</v>
+        <v>535.7000122070312</v>
       </c>
       <c r="F44" s="0">
-        <v>140.8000030517578</v>
+        <v>510.4000244140625</v>
       </c>
     </row>
     <row r="45">
@@ -1847,16 +1847,16 @@
         <v>90</v>
       </c>
       <c r="C45" s="0">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="D45" s="0">
-        <v>260.70001220703125</v>
+        <v>149.60000610351562</v>
       </c>
       <c r="E45" s="0">
-        <v>1087.9000244140625</v>
+        <v>240.90000915527344</v>
       </c>
       <c r="F45" s="0">
-        <v>150.6999969482422</v>
+        <v>754.6000366210938</v>
       </c>
     </row>
     <row r="46">
@@ -1867,16 +1867,16 @@
         <v>92</v>
       </c>
       <c r="C46" s="0">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="D46" s="0">
-        <v>231.0</v>
+        <v>932.800048828125</v>
       </c>
       <c r="E46" s="0">
-        <v>1090.0999755859375</v>
+        <v>423.5</v>
       </c>
       <c r="F46" s="0">
-        <v>517.0</v>
+        <v>404.8000183105469</v>
       </c>
     </row>
     <row r="47">
@@ -1887,16 +1887,16 @@
         <v>94</v>
       </c>
       <c r="C47" s="0">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="D47" s="0">
-        <v>462.0</v>
+        <v>216.70001220703125</v>
       </c>
       <c r="E47" s="0">
-        <v>566.5</v>
+        <v>399.3000183105469</v>
       </c>
       <c r="F47" s="0">
-        <v>597.2999877929688</v>
+        <v>980.1000366210938</v>
       </c>
     </row>
     <row r="48">
@@ -1907,16 +1907,16 @@
         <v>96</v>
       </c>
       <c r="C48" s="0">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D48" s="0">
-        <v>66.0</v>
+        <v>1054.9000244140625</v>
       </c>
       <c r="E48" s="0">
-        <v>0.0</v>
+        <v>800.7999877929688</v>
       </c>
       <c r="F48" s="0">
-        <v>1090.0999755859375</v>
+        <v>601.7000122070312</v>
       </c>
     </row>
     <row r="49">
@@ -1927,16 +1927,16 @@
         <v>98</v>
       </c>
       <c r="C49" s="0">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D49" s="0">
-        <v>281.6000061035156</v>
+        <v>291.5</v>
       </c>
       <c r="E49" s="0">
-        <v>331.1000061035156</v>
+        <v>133.10000610351562</v>
       </c>
       <c r="F49" s="0">
-        <v>732.6000366210938</v>
+        <v>23.100000381469727</v>
       </c>
     </row>
     <row r="50">
@@ -1947,16 +1947,16 @@
         <v>100</v>
       </c>
       <c r="C50" s="0">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D50" s="0">
-        <v>177.10000610351562</v>
+        <v>471.9000244140625</v>
       </c>
       <c r="E50" s="0">
-        <v>322.3000183105469</v>
+        <v>753.5</v>
       </c>
       <c r="F50" s="0">
-        <v>1010.9000244140625</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="51">
@@ -1967,16 +1967,16 @@
         <v>102</v>
       </c>
       <c r="C51" s="0">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D51" s="0">
-        <v>258.5</v>
+        <v>171.60000610351562</v>
       </c>
       <c r="E51" s="0">
-        <v>226.60000610351562</v>
+        <v>695.2000122070312</v>
       </c>
       <c r="F51" s="0">
-        <v>793.1000366210938</v>
+        <v>700.7000122070312</v>
       </c>
     </row>
     <row r="52">
@@ -1987,16 +1987,16 @@
         <v>104</v>
       </c>
       <c r="C52" s="0">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="D52" s="0">
-        <v>270.6000061035156</v>
+        <v>344.3000183105469</v>
       </c>
       <c r="E52" s="0">
-        <v>579.7000122070312</v>
+        <v>151.8000030517578</v>
       </c>
       <c r="F52" s="0">
-        <v>535.7000122070312</v>
+        <v>1.100000023841858</v>
       </c>
     </row>
     <row r="53">
@@ -2007,16 +2007,16 @@
         <v>106</v>
       </c>
       <c r="C53" s="0">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="D53" s="0">
-        <v>468.6000061035156</v>
+        <v>45.10000228881836</v>
       </c>
       <c r="E53" s="0">
-        <v>330.0</v>
+        <v>462.0</v>
       </c>
       <c r="F53" s="0">
-        <v>576.4000244140625</v>
+        <v>323.3999938964844</v>
       </c>
     </row>
     <row r="54">
@@ -2027,16 +2027,16 @@
         <v>108</v>
       </c>
       <c r="C54" s="0">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="D54" s="0">
-        <v>687.5</v>
+        <v>976.800048828125</v>
       </c>
       <c r="E54" s="0">
-        <v>852.5</v>
+        <v>717.2000122070312</v>
       </c>
       <c r="F54" s="0">
-        <v>1057.0999755859375</v>
+        <v>732.6000366210938</v>
       </c>
     </row>
     <row r="55">
@@ -2047,16 +2047,16 @@
         <v>110</v>
       </c>
       <c r="C55" s="0">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="D55" s="0">
-        <v>339.8999938964844</v>
+        <v>257.3999938964844</v>
       </c>
       <c r="E55" s="0">
-        <v>559.9000244140625</v>
+        <v>61.60000228881836</v>
       </c>
       <c r="F55" s="0">
-        <v>798.6000366210938</v>
+        <v>25.30000114440918</v>
       </c>
     </row>
     <row r="56">
@@ -2067,16 +2067,16 @@
         <v>112</v>
       </c>
       <c r="C56" s="0">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="D56" s="0">
-        <v>380.6000061035156</v>
+        <v>1069.2000732421875</v>
       </c>
       <c r="E56" s="0">
-        <v>223.3000030517578</v>
+        <v>888.800048828125</v>
       </c>
       <c r="F56" s="0">
-        <v>887.7000122070312</v>
+        <v>665.5</v>
       </c>
     </row>
     <row r="57">
@@ -2090,13 +2090,13 @@
         <v>78</v>
       </c>
       <c r="D57" s="0">
-        <v>1087.9000244140625</v>
+        <v>42.900001525878906</v>
       </c>
       <c r="E57" s="0">
-        <v>646.7999877929688</v>
+        <v>66.0</v>
       </c>
       <c r="F57" s="0">
-        <v>66.0</v>
+        <v>156.1999969482422</v>
       </c>
     </row>
     <row r="58">
@@ -2107,16 +2107,16 @@
         <v>116</v>
       </c>
       <c r="C58" s="0">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="D58" s="0">
-        <v>557.7000122070312</v>
+        <v>387.20001220703125</v>
       </c>
       <c r="E58" s="0">
-        <v>18.700000762939453</v>
+        <v>921.800048828125</v>
       </c>
       <c r="F58" s="0">
-        <v>1030.7000732421875</v>
+        <v>753.5</v>
       </c>
     </row>
     <row r="59">
@@ -2127,16 +2127,16 @@
         <v>118</v>
       </c>
       <c r="C59" s="0">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="D59" s="0">
-        <v>657.7999877929688</v>
+        <v>851.4000244140625</v>
       </c>
       <c r="E59" s="0">
-        <v>514.7999877929688</v>
+        <v>477.4000244140625</v>
       </c>
       <c r="F59" s="0">
-        <v>328.8999938964844</v>
+        <v>155.10000610351562</v>
       </c>
     </row>
     <row r="60">
@@ -2147,16 +2147,16 @@
         <v>120</v>
       </c>
       <c r="C60" s="0">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="D60" s="0">
-        <v>141.90000915527344</v>
+        <v>783.2000122070312</v>
       </c>
       <c r="E60" s="0">
-        <v>212.3000030517578</v>
+        <v>810.7000122070312</v>
       </c>
       <c r="F60" s="0">
-        <v>638.0</v>
+        <v>671.0</v>
       </c>
     </row>
     <row r="61">
@@ -2167,16 +2167,16 @@
         <v>122</v>
       </c>
       <c r="C61" s="0">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="D61" s="0">
-        <v>716.1000366210938</v>
+        <v>37.400001525878906</v>
       </c>
       <c r="E61" s="0">
-        <v>257.3999938964844</v>
+        <v>823.9000244140625</v>
       </c>
       <c r="F61" s="0">
-        <v>481.8000183105469</v>
+        <v>1090.0999755859375</v>
       </c>
     </row>
     <row r="62">
@@ -2187,16 +2187,16 @@
         <v>124</v>
       </c>
       <c r="C62" s="0">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D62" s="0">
-        <v>300.3000183105469</v>
+        <v>1078.0</v>
       </c>
       <c r="E62" s="0">
-        <v>226.60000610351562</v>
+        <v>1036.2000732421875</v>
       </c>
       <c r="F62" s="0">
-        <v>338.8000183105469</v>
+        <v>638.0</v>
       </c>
     </row>
     <row r="63">
@@ -2207,16 +2207,16 @@
         <v>126</v>
       </c>
       <c r="C63" s="0">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D63" s="0">
-        <v>1026.300048828125</v>
+        <v>412.5</v>
       </c>
       <c r="E63" s="0">
-        <v>411.3999938964844</v>
+        <v>485.1000061035156</v>
       </c>
       <c r="F63" s="0">
-        <v>562.1000366210938</v>
+        <v>2.200000047683716</v>
       </c>
     </row>
     <row r="64">
@@ -2227,16 +2227,16 @@
         <v>128</v>
       </c>
       <c r="C64" s="0">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D64" s="0">
-        <v>418.0</v>
+        <v>823.9000244140625</v>
       </c>
       <c r="E64" s="0">
-        <v>321.20001220703125</v>
+        <v>1048.300048828125</v>
       </c>
       <c r="F64" s="0">
-        <v>382.8000183105469</v>
+        <v>859.1000366210938</v>
       </c>
     </row>
     <row r="65">
@@ -2247,16 +2247,16 @@
         <v>130</v>
       </c>
       <c r="C65" s="0">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="D65" s="0">
-        <v>955.9000244140625</v>
+        <v>19.80000114440918</v>
       </c>
       <c r="E65" s="0">
-        <v>353.1000061035156</v>
+        <v>694.1000366210938</v>
       </c>
       <c r="F65" s="0">
-        <v>1023.0</v>
+        <v>463.1000061035156</v>
       </c>
     </row>
     <row r="66">
@@ -2267,16 +2267,16 @@
         <v>132</v>
       </c>
       <c r="C66" s="0">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="D66" s="0">
-        <v>286.0</v>
+        <v>268.3999938964844</v>
       </c>
       <c r="E66" s="0">
-        <v>539.0</v>
+        <v>866.800048828125</v>
       </c>
       <c r="F66" s="0">
-        <v>335.5</v>
+        <v>873.4000244140625</v>
       </c>
     </row>
     <row r="67">
@@ -2287,16 +2287,16 @@
         <v>134</v>
       </c>
       <c r="C67" s="0">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D67" s="0">
-        <v>59.400001525878906</v>
+        <v>321.20001220703125</v>
       </c>
       <c r="E67" s="0">
-        <v>650.1000366210938</v>
+        <v>209.0</v>
       </c>
       <c r="F67" s="0">
-        <v>59.400001525878906</v>
+        <v>609.4000244140625</v>
       </c>
     </row>
     <row r="68">
@@ -2307,16 +2307,16 @@
         <v>136</v>
       </c>
       <c r="C68" s="0">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="D68" s="0">
-        <v>701.7999877929688</v>
+        <v>404.8000183105469</v>
       </c>
       <c r="E68" s="0">
+        <v>624.7999877929688</v>
+      </c>
+      <c r="F68" s="0">
         <v>616.0</v>
-      </c>
-      <c r="F68" s="0">
-        <v>1068.0999755859375</v>
       </c>
     </row>
     <row r="69">
@@ -2327,16 +2327,16 @@
         <v>138</v>
       </c>
       <c r="C69" s="0">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D69" s="0">
-        <v>762.2999877929688</v>
+        <v>412.5</v>
       </c>
       <c r="E69" s="0">
-        <v>761.2000122070312</v>
+        <v>1068.0999755859375</v>
       </c>
       <c r="F69" s="0">
-        <v>294.8000183105469</v>
+        <v>144.10000610351562</v>
       </c>
     </row>
     <row r="70">
@@ -2347,16 +2347,16 @@
         <v>140</v>
       </c>
       <c r="C70" s="0">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="D70" s="0">
-        <v>949.300048828125</v>
+        <v>748.0</v>
       </c>
       <c r="E70" s="0">
-        <v>8.800000190734863</v>
+        <v>310.20001220703125</v>
       </c>
       <c r="F70" s="0">
-        <v>453.20001220703125</v>
+        <v>354.20001220703125</v>
       </c>
     </row>
     <row r="71">
@@ -2367,16 +2367,16 @@
         <v>142</v>
       </c>
       <c r="C71" s="0">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="D71" s="0">
-        <v>1.100000023841858</v>
+        <v>948.2000122070312</v>
       </c>
       <c r="E71" s="0">
-        <v>661.1000366210938</v>
+        <v>742.5</v>
       </c>
       <c r="F71" s="0">
-        <v>921.800048828125</v>
+        <v>246.40000915527344</v>
       </c>
     </row>
     <row r="72">
@@ -2387,16 +2387,16 @@
         <v>144</v>
       </c>
       <c r="C72" s="0">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="D72" s="0">
-        <v>430.1000061035156</v>
+        <v>179.3000030517578</v>
       </c>
       <c r="E72" s="0">
-        <v>861.300048828125</v>
+        <v>1073.5999755859375</v>
       </c>
       <c r="F72" s="0">
-        <v>378.3999938964844</v>
+        <v>1029.5999755859375</v>
       </c>
     </row>
     <row r="73">
@@ -2407,16 +2407,16 @@
         <v>146</v>
       </c>
       <c r="C73" s="0">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="D73" s="0">
-        <v>161.6999969482422</v>
+        <v>158.40000915527344</v>
       </c>
       <c r="E73" s="0">
-        <v>280.5</v>
+        <v>347.6000061035156</v>
       </c>
       <c r="F73" s="0">
-        <v>671.0</v>
+        <v>851.4000244140625</v>
       </c>
     </row>
     <row r="74">
@@ -2427,16 +2427,16 @@
         <v>148</v>
       </c>
       <c r="C74" s="0">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="D74" s="0">
-        <v>863.5</v>
+        <v>77.0</v>
       </c>
       <c r="E74" s="0">
-        <v>804.1000366210938</v>
+        <v>917.4000244140625</v>
       </c>
       <c r="F74" s="0">
-        <v>206.8000030517578</v>
+        <v>387.20001220703125</v>
       </c>
     </row>
     <row r="75">
@@ -2447,16 +2447,16 @@
         <v>150</v>
       </c>
       <c r="C75" s="0">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D75" s="0">
-        <v>210.10000610351562</v>
+        <v>1025.2000732421875</v>
       </c>
       <c r="E75" s="0">
-        <v>141.90000915527344</v>
+        <v>96.80000305175781</v>
       </c>
       <c r="F75" s="0">
-        <v>929.5</v>
+        <v>1047.2000732421875</v>
       </c>
     </row>
     <row r="76">
@@ -2467,16 +2467,16 @@
         <v>152</v>
       </c>
       <c r="C76" s="0">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D76" s="0">
-        <v>97.9000015258789</v>
+        <v>762.2999877929688</v>
       </c>
       <c r="E76" s="0">
-        <v>913.0</v>
+        <v>1084.5999755859375</v>
       </c>
       <c r="F76" s="0">
-        <v>756.7999877929688</v>
+        <v>386.1000061035156</v>
       </c>
     </row>
     <row r="77">
@@ -2487,16 +2487,16 @@
         <v>154</v>
       </c>
       <c r="C77" s="0">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="D77" s="0">
-        <v>644.6000366210938</v>
+        <v>647.9000244140625</v>
       </c>
       <c r="E77" s="0">
-        <v>1052.7000732421875</v>
+        <v>900.9000244140625</v>
       </c>
       <c r="F77" s="0">
-        <v>1021.9000244140625</v>
+        <v>652.2999877929688</v>
       </c>
     </row>
     <row r="78">
@@ -2507,16 +2507,16 @@
         <v>156</v>
       </c>
       <c r="C78" s="0">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="D78" s="0">
-        <v>904.2000122070312</v>
+        <v>1028.5</v>
       </c>
       <c r="E78" s="0">
-        <v>475.20001220703125</v>
+        <v>718.2999877929688</v>
       </c>
       <c r="F78" s="0">
-        <v>524.7000122070312</v>
+        <v>166.10000610351562</v>
       </c>
     </row>
     <row r="79">
@@ -2527,16 +2527,16 @@
         <v>158</v>
       </c>
       <c r="C79" s="0">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="D79" s="0">
-        <v>619.2999877929688</v>
+        <v>146.3000030517578</v>
       </c>
       <c r="E79" s="0">
-        <v>821.7000122070312</v>
+        <v>739.2000122070312</v>
       </c>
       <c r="F79" s="0">
-        <v>1056.0</v>
+        <v>1089.0</v>
       </c>
     </row>
     <row r="80">
@@ -2547,16 +2547,16 @@
         <v>160</v>
       </c>
       <c r="C80" s="0">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D80" s="0">
-        <v>6.600000381469727</v>
+        <v>542.2999877929688</v>
       </c>
       <c r="E80" s="0">
-        <v>536.7999877929688</v>
+        <v>220.0</v>
       </c>
       <c r="F80" s="0">
-        <v>440.0</v>
+        <v>653.4000244140625</v>
       </c>
     </row>
     <row r="81">
@@ -2567,16 +2567,16 @@
         <v>162</v>
       </c>
       <c r="C81" s="0">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="D81" s="0">
-        <v>214.5</v>
+        <v>620.4000244140625</v>
       </c>
       <c r="E81" s="0">
-        <v>794.2000122070312</v>
+        <v>677.6000366210938</v>
       </c>
       <c r="F81" s="0">
-        <v>51.70000076293945</v>
+        <v>983.4000244140625</v>
       </c>
     </row>
     <row r="82">
@@ -2587,16 +2587,16 @@
         <v>164</v>
       </c>
       <c r="C82" s="0">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="D82" s="0">
-        <v>517.0</v>
+        <v>503.8000183105469</v>
       </c>
       <c r="E82" s="0">
-        <v>28.600000381469727</v>
+        <v>409.20001220703125</v>
       </c>
       <c r="F82" s="0">
-        <v>825.0</v>
+        <v>189.1999969482422</v>
       </c>
     </row>
     <row r="83">
@@ -2607,16 +2607,16 @@
         <v>166</v>
       </c>
       <c r="C83" s="0">
-        <v>74</v>
+        <v>7</v>
       </c>
       <c r="D83" s="0">
-        <v>1043.9000244140625</v>
+        <v>27.5</v>
       </c>
       <c r="E83" s="0">
-        <v>237.60000610351562</v>
+        <v>893.2000122070312</v>
       </c>
       <c r="F83" s="0">
-        <v>998.800048828125</v>
+        <v>259.6000061035156</v>
       </c>
     </row>
     <row r="84">
@@ -2627,16 +2627,16 @@
         <v>168</v>
       </c>
       <c r="C84" s="0">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="D84" s="0">
-        <v>834.9000244140625</v>
+        <v>987.800048828125</v>
       </c>
       <c r="E84" s="0">
-        <v>616.0</v>
+        <v>127.60000610351562</v>
       </c>
       <c r="F84" s="0">
-        <v>288.20001220703125</v>
+        <v>328.8999938964844</v>
       </c>
     </row>
     <row r="85">
@@ -2647,16 +2647,16 @@
         <v>170</v>
       </c>
       <c r="C85" s="0">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="D85" s="0">
-        <v>271.70001220703125</v>
+        <v>182.60000610351562</v>
       </c>
       <c r="E85" s="0">
-        <v>715.0</v>
+        <v>535.7000122070312</v>
       </c>
       <c r="F85" s="0">
-        <v>361.8999938964844</v>
+        <v>847.0</v>
       </c>
     </row>
     <row r="86">
@@ -2667,16 +2667,16 @@
         <v>172</v>
       </c>
       <c r="C86" s="0">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D86" s="0">
-        <v>785.4000244140625</v>
+        <v>913.0</v>
       </c>
       <c r="E86" s="0">
-        <v>946.0</v>
+        <v>1023.0</v>
       </c>
       <c r="F86" s="0">
-        <v>592.9000244140625</v>
+        <v>317.8999938964844</v>
       </c>
     </row>
     <row r="87">
@@ -2687,16 +2687,16 @@
         <v>174</v>
       </c>
       <c r="C87" s="0">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D87" s="0">
-        <v>774.4000244140625</v>
+        <v>799.7000122070312</v>
       </c>
       <c r="E87" s="0">
-        <v>138.60000610351562</v>
+        <v>693.0</v>
       </c>
       <c r="F87" s="0">
-        <v>528.0</v>
+        <v>377.3000183105469</v>
       </c>
     </row>
     <row r="88">
@@ -2707,16 +2707,16 @@
         <v>176</v>
       </c>
       <c r="C88" s="0">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="D88" s="0">
-        <v>657.7999877929688</v>
+        <v>75.9000015258789</v>
       </c>
       <c r="E88" s="0">
-        <v>952.6000366210938</v>
+        <v>763.4000244140625</v>
       </c>
       <c r="F88" s="0">
-        <v>739.2000122070312</v>
+        <v>518.1000366210938</v>
       </c>
     </row>
     <row r="89">
@@ -2727,16 +2727,16 @@
         <v>178</v>
       </c>
       <c r="C89" s="0">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="D89" s="0">
-        <v>581.9000244140625</v>
+        <v>979.0</v>
       </c>
       <c r="E89" s="0">
-        <v>509.3000183105469</v>
+        <v>844.800048828125</v>
       </c>
       <c r="F89" s="0">
-        <v>1061.5</v>
+        <v>1064.800048828125</v>
       </c>
     </row>
     <row r="90">
@@ -2747,16 +2747,16 @@
         <v>180</v>
       </c>
       <c r="C90" s="0">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="D90" s="0">
-        <v>647.9000244140625</v>
+        <v>636.9000244140625</v>
       </c>
       <c r="E90" s="0">
-        <v>838.2000122070312</v>
+        <v>491.70001220703125</v>
       </c>
       <c r="F90" s="0">
-        <v>935.0</v>
+        <v>759.0</v>
       </c>
     </row>
     <row r="91">
@@ -2767,16 +2767,16 @@
         <v>182</v>
       </c>
       <c r="C91" s="0">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="D91" s="0">
-        <v>981.2000122070312</v>
+        <v>764.5</v>
       </c>
       <c r="E91" s="0">
-        <v>114.4000015258789</v>
+        <v>517.0</v>
       </c>
       <c r="F91" s="0">
-        <v>334.3999938964844</v>
+        <v>784.2999877929688</v>
       </c>
     </row>
     <row r="92">
@@ -2787,16 +2787,16 @@
         <v>184</v>
       </c>
       <c r="C92" s="0">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="D92" s="0">
-        <v>1069.2000732421875</v>
+        <v>699.6000366210938</v>
       </c>
       <c r="E92" s="0">
-        <v>442.20001220703125</v>
+        <v>590.7000122070312</v>
       </c>
       <c r="F92" s="0">
-        <v>1049.4000244140625</v>
+        <v>792.0</v>
       </c>
     </row>
     <row r="93">
@@ -2807,16 +2807,16 @@
         <v>186</v>
       </c>
       <c r="C93" s="0">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D93" s="0">
-        <v>185.90000915527344</v>
+        <v>237.60000610351562</v>
       </c>
       <c r="E93" s="0">
-        <v>754.6000366210938</v>
+        <v>858.0</v>
       </c>
       <c r="F93" s="0">
-        <v>853.6000366210938</v>
+        <v>233.20001220703125</v>
       </c>
     </row>
     <row r="94">
@@ -2827,16 +2827,16 @@
         <v>188</v>
       </c>
       <c r="C94" s="0">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D94" s="0">
-        <v>809.6000366210938</v>
+        <v>730.4000244140625</v>
       </c>
       <c r="E94" s="0">
-        <v>279.3999938964844</v>
+        <v>191.40000915527344</v>
       </c>
       <c r="F94" s="0">
-        <v>845.9000244140625</v>
+        <v>477.4000244140625</v>
       </c>
     </row>
     <row r="95">
@@ -2847,16 +2847,16 @@
         <v>190</v>
       </c>
       <c r="C95" s="0">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D95" s="0">
-        <v>655.6000366210938</v>
+        <v>370.70001220703125</v>
       </c>
       <c r="E95" s="0">
-        <v>1092.300048828125</v>
+        <v>227.70001220703125</v>
       </c>
       <c r="F95" s="0">
-        <v>310.20001220703125</v>
+        <v>667.7000122070312</v>
       </c>
     </row>
     <row r="96">
@@ -2867,16 +2867,16 @@
         <v>192</v>
       </c>
       <c r="C96" s="0">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="D96" s="0">
-        <v>918.5</v>
+        <v>633.6000366210938</v>
       </c>
       <c r="E96" s="0">
-        <v>390.5</v>
+        <v>1043.9000244140625</v>
       </c>
       <c r="F96" s="0">
-        <v>513.7000122070312</v>
+        <v>680.9000244140625</v>
       </c>
     </row>
     <row r="97">
@@ -2887,16 +2887,16 @@
         <v>194</v>
       </c>
       <c r="C97" s="0">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="D97" s="0">
-        <v>1047.2000732421875</v>
+        <v>861.300048828125</v>
       </c>
       <c r="E97" s="0">
-        <v>794.2000122070312</v>
+        <v>33.0</v>
       </c>
       <c r="F97" s="0">
-        <v>18.700000762939453</v>
+        <v>581.9000244140625</v>
       </c>
     </row>
     <row r="98">
@@ -2907,16 +2907,16 @@
         <v>196</v>
       </c>
       <c r="C98" s="0">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="D98" s="0">
-        <v>621.5</v>
+        <v>684.2000122070312</v>
       </c>
       <c r="E98" s="0">
-        <v>50.60000228881836</v>
+        <v>298.1000061035156</v>
       </c>
       <c r="F98" s="0">
-        <v>94.5999984741211</v>
+        <v>24.200000762939453</v>
       </c>
     </row>
     <row r="99">
@@ -2927,16 +2927,16 @@
         <v>198</v>
       </c>
       <c r="C99" s="0">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="D99" s="0">
-        <v>1048.300048828125</v>
+        <v>962.5</v>
       </c>
       <c r="E99" s="0">
-        <v>444.4000244140625</v>
+        <v>239.8000030517578</v>
       </c>
       <c r="F99" s="0">
-        <v>1041.7000732421875</v>
+        <v>286.0</v>
       </c>
     </row>
     <row r="100">
@@ -2947,16 +2947,16 @@
         <v>200</v>
       </c>
       <c r="C100" s="0">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D100" s="0">
-        <v>20.899999618530273</v>
+        <v>421.3000183105469</v>
       </c>
       <c r="E100" s="0">
-        <v>246.40000915527344</v>
+        <v>1052.7000732421875</v>
       </c>
       <c r="F100" s="0">
-        <v>228.8000030517578</v>
+        <v>187.0</v>
       </c>
     </row>
     <row r="101">
@@ -2967,16 +2967,16 @@
         <v>202</v>
       </c>
       <c r="C101" s="0">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="D101" s="0">
-        <v>72.5999984741211</v>
+        <v>578.6000366210938</v>
       </c>
       <c r="E101" s="0">
-        <v>383.8999938964844</v>
+        <v>148.5</v>
       </c>
       <c r="F101" s="0">
-        <v>636.9000244140625</v>
+        <v>188.10000610351562</v>
       </c>
     </row>
     <row r="102">
@@ -2987,16 +2987,16 @@
         <v>204</v>
       </c>
       <c r="C102" s="0">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="D102" s="0">
-        <v>189.1999969482422</v>
+        <v>663.2999877929688</v>
       </c>
       <c r="E102" s="0">
-        <v>532.4000244140625</v>
+        <v>638.0</v>
       </c>
       <c r="F102" s="0">
-        <v>418.0</v>
+        <v>792.0</v>
       </c>
     </row>
     <row r="103">
@@ -3007,16 +3007,16 @@
         <v>206</v>
       </c>
       <c r="C103" s="0">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="D103" s="0">
-        <v>839.2999877929688</v>
+        <v>630.2999877929688</v>
       </c>
       <c r="E103" s="0">
-        <v>929.5</v>
+        <v>405.8999938964844</v>
       </c>
       <c r="F103" s="0">
-        <v>811.7999877929688</v>
+        <v>504.9000244140625</v>
       </c>
     </row>
     <row r="105">
